--- a/news.xlsx
+++ b/news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22AAFA8-E15C-45DE-AF1A-9F81B256F51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E1AFD8-A564-4BAB-90C2-41252A675516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="353">
   <si>
     <t>PayPal has become the first company to drop out of Facebook’s Libra cryptocurrency, as the embattled project continues to face queries from regulators around the world.</t>
   </si>
@@ -804,12 +804,306 @@
   <si>
     <t>situacion</t>
   </si>
+  <si>
+    <t>Spanish lawmakers get cryptocurrency in a bid to promote industry</t>
+  </si>
+  <si>
+    <t>We have explained to your honorable members that we are in a time of profound change in the use of money, in addition to highlighting the important role that cryptocurrencies have today.</t>
+  </si>
+  <si>
+    <t>Spain's new bill proposal complicates crypto for citizens</t>
+  </si>
+  <si>
+    <t>Germany looks to blockchain to help decentralize their energy economy</t>
+  </si>
+  <si>
+    <t>Regulatory authorities in the US and the UK are working on regulations that will help curb activities of crypto robbers.</t>
+  </si>
+  <si>
+    <t>We do see select crypto market segments as more exposed to regulatory risks than others and are worth watching closely, with projects in decentralized finance — or DeFi — coming under pressure for a lack of know-your-customer and anti-money-laundering protocols,</t>
+  </si>
+  <si>
+    <t>Cryptocurrency transactions in Africa are growing rapidly. On a continent that already embraces mobile money, virtual currency offers advantages for a young, tech-savvy population.</t>
+  </si>
+  <si>
+    <t>Monthly cryptocurrency transfers to and from Africa under $10,000 (€8,500) shot up by 55% over the past year, reaching a peak of $316 million in June.</t>
+  </si>
+  <si>
+    <t>Crytocurrencies aim to cut out the middlemen, such as credit card companies or banks, making it cheaper to transfer money from one virtual wallet to another. Cryptocurrencies also aren't controlled by any central authority, which theoretically protects them from any interference by governments.</t>
+  </si>
+  <si>
+    <t>Cryptocurrency basically takes what money is to many people and uses technology to make it more transparent and less centralized, so that everybody has a seat at the table when it comes to the future of finance</t>
+  </si>
+  <si>
+    <t>Cryptocurrency basically works like mobile money, technology entrepreneur Darko said. "So it's easier for Africans to understand as opposed to people in the West who already had more financial inclusion and easy access to banking systems."</t>
+  </si>
+  <si>
+    <t>A movie is being made about Onecoin’s cryptocurrency Ponzi scheme starring Oscar winner Kate Winslet. This Hollywood MGM movie is based on a true story told by a victim of the cryptocurrency fraud scheme.</t>
+  </si>
+  <si>
+    <t>Mobile cryptocurrency wallet BRD announced today that it now has more than six million users worldwide, thanks to strong growth in India and Latin America. With this momentum, the company expects to reach 10 million users by early 2021.</t>
+  </si>
+  <si>
+    <t>Distributed ledger technology and even cryptocurrency itself is regarded as a potential positive technological force by the Department of Justice</t>
+  </si>
+  <si>
+    <t>Three categories of crime involving cryptocurrency fall into special scrutiny by the Department of Justice: financial transactions involved with criminal activity (such as buying illegal drugs with cryptocurrencies), money laundering/evading tax laws, and crime such as theft of cryptocurrencies that directly affect cryptocurrency markets</t>
+  </si>
+  <si>
+    <t>Square’s recently announced $50 million investment in bitcoin (BTC) is a “strong vote of confidence for the future of bitcoin” and a signal the payments company sees “a lot of potential” for the cryptocurrency as an asset, JPMorgan analysts said in a report dated Tuesday.</t>
+  </si>
+  <si>
+    <t>The U.K. Financial Conduct Authority’s decision to ban individual investors from speculating on bitcoin and other cryptocurrencies is likely to have a minimal impact, partly because the market is so small</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies are preferred when settling transactions that involve illicit goods that are sold on the dark web. In addition, ransomware criminals also prefer being paid cryptocurrencies because they perceive this to be difficult to track and trace.</t>
+  </si>
+  <si>
+    <t>Financial products based on the price of Bitcoin and other cryptocurrencies are to be banned from sale to retail consumers by the City watchdog.</t>
+  </si>
+  <si>
+    <t>they have become synonymous with highly volatile assets that could put at risk the financial stability of the planet, and even the monetary sovereignty of nations, like many fear Libra could bring about.</t>
+  </si>
+  <si>
+    <t>The lack of legal certainty is often cited as the main barrier to developing a sound crypto-asset market in the EU</t>
+  </si>
+  <si>
+    <t>For some, blockchain is the greatest technological breakthrough since the Internet.</t>
+  </si>
+  <si>
+    <t>regulators across the world are not only concerned about the volatility of these digital tokens and the impact that the Bitcoin frenzy could have on users. They are also wary of some of its beneficiaries, as the anonymity provided by Bitcoin and other cryptocurrencies made them an optimal payment method for drug dealers and other illegal activities.</t>
+  </si>
+  <si>
+    <t>a three-judge bench of the Supreme Court revoked a Reserve Bank of India (RBI) ruling that banned any entity in India from dealing in, or to be involved with cryptocurrency transactions.</t>
+  </si>
+  <si>
+    <t>Bitcoin alone consumes more energy each year than the entire country of Switzerland.</t>
+  </si>
+  <si>
+    <t>Yes, cryptocurrency consumes a huge amount of energy, the argument goes, but the majority of that energy comes from renewable resources.</t>
+  </si>
+  <si>
+    <t>The Office of the Comptroller of the Currency hopes more guidance from the regulator would help ease banks’ concerns about the new financial technology</t>
+  </si>
+  <si>
+    <t>Crypto Earnings Should Be Taxed, Says BuyUCoin In Draft Document</t>
+  </si>
+  <si>
+    <t>Bloomberg’s latest crypto newsletter predicts that a Bitcoin ETF could see the light of the day if Democratic presidential nominee Joe Biden is elected as the next U.S.</t>
+  </si>
+  <si>
+    <t>However, even if President Donald Trump is re-elected, Bloomberg expects Bitcoin to extend its uptrend through his second term as the digital asset will be buoyed by the rising debt-to-GDP, quantitative easing, and Bitcoin hash rate.</t>
+  </si>
+  <si>
+    <t>Fundstrat cautioned that some areas within crypto might be vulnerable given the regulatory trajectory.</t>
+  </si>
+  <si>
+    <t>Canadian investment management firm Wealthsimple announced Tuesday that its cryptocurrency exchange has launched. The company explained that Wealthsimple Crypto is “Canada’s first regulated crypto platform”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crypto is building in credibility crypto will keep going while we are locked in our homes—a surefire sign that, pandemic or not, crypto is a huge part of our future. </t>
+  </si>
+  <si>
+    <t>Philippine central bank Governor Benjamin Diokno said the technology behind digital tokens could improve delivery of financial services, as the regulator proceeds to study the feasibility of its own digital currency.</t>
+  </si>
+  <si>
+    <t>The gauge, which tracks some of the largest cryptocurrencies including Bitcoin, Ether, XRP and Bitcoin Cash, fell as much as 6.5%, the biggest drop since June 11.</t>
+  </si>
+  <si>
+    <t>The Department of Justice recently released a report that served as a “Cryptocurrency Enforcement Framework” as part of the Attorney General’s Cyber Digital Task Force</t>
+  </si>
+  <si>
+    <t>“At the outset, it bears emphasizing that distributed ledger technology, upon which all cryptocurrencies build, raises breathtaking possibilities for human flourishing.” — in almost the beginning of the report this key point stands out almost right away —a somewhat positive attitude to DLT and blockchain.</t>
+  </si>
+  <si>
+    <t>The Department of Justice is very focused on pre-defined rogue states, terrorist groups, and individuals using cryptocurrencies on Darknet markets</t>
+  </si>
+  <si>
+    <t>While the Department of Justice (DOJ) and its partners are committed to supporting the advancement of legitimate cryptocurrency technologies and uses, we will not hesitate to enforce the laws that govern these technologies when necessary to protect the public</t>
+  </si>
+  <si>
+    <t>“Apart from cryptocurrency, the new cryptoasset industry will offer a variety of financial, legal or other services based on decentralised solutions,” Kamberi told BIRN.</t>
+  </si>
+  <si>
+    <t>“The ability of cryptocurrencies like bitcoin to be censorship resistant is seen as a great advantage,” said Arvin Kamberi, vice president of the Bitcoin Association of Serbia.</t>
+  </si>
+  <si>
+    <t>The EU executive was wary from the outset of the risks of over-regulating because of Libra, as Europe could strangle the innovation brought by smaller Fintech firms.</t>
+  </si>
+  <si>
+    <t>The year 2020 has not been kind to cryptocurrencies in general. Most cryptocurrencies touched the lowest point of their lifetime, and Dogecoin experienced it.</t>
+  </si>
+  <si>
+    <t>Dogecoin will likely survive and may not lose value in the next 5 years. According to WalletInvestor, there will be a positive DOGE price trend. A common prediction for Dogecoin is that its price could rise significantly to $ 0.0184 by 2025.</t>
+  </si>
+  <si>
+    <t>The Bank of England describes the volatility of cryptocurrencies (using Bitcoin as an example) as “the Bitcoin rollercoaster”, with huge peaks and troughs unknown in traditional tangible assets such as gold or stocks</t>
+  </si>
+  <si>
+    <t>To be clear, bitcoins and other virtual currencies are also a frequent target of many criminals, who continue to target cryptocurrency wallets being held by individuals, organizations and cryptocurrency exchanges. A successful exchange heist, for example, can potentially net attackers millions of dollars' worth of cryptocurrency.</t>
+  </si>
+  <si>
+    <t>As cases of wash trading on cryptocurrency exchanges rise, it is important to acknowledge the lack of continuous monitoring of cryptocurrency transactions on exchanges that need to be fixed. Along with tougher regulations and cooperation between industry stakeholders, continuous monitoring of transactions on exchanges and VASPs is necessary, as it will not only help in preventing wash trading but also help detect money laundering, terrorism financing and other illicit trade through cryptocurrencies.</t>
+  </si>
+  <si>
+    <t>Spanish banks have been more interested in cryptocurrencies and blockchain in the past few years. Santander partnered with Ripple for a blockchain-based payments platform while the Banco Bilbao Vizcaya Argentaria (BBVA) launched a study to explore zero-knowledge proofs and other cryptographic techniques.</t>
+  </si>
+  <si>
+    <t>Unreliable local currencies and hyperinflation have also played a part in the cryptocurrency boom. When the Zimbabwean dollar skyrocketed in 2015, some people turned to trading in Bitcoin instead.</t>
+  </si>
+  <si>
+    <t>The very nature of cryptocurrency means prices are volatile to begin with. Virtual currencies remain unregulated in most African countries and their legal status is often unclear, meaning there is no safety net to compensate for loss of funds. Short term investors are more likely to get hit hard by sudden slumps.</t>
+  </si>
+  <si>
+    <t>Cryptocurrency marketers like Akyaw warns that people with little experience in new technologies are most at risk of falling victim to an increasing number of crypto-scams, or investing in the wrong markets.</t>
+  </si>
+  <si>
+    <t>Africa's biggest economy Nigeria is leading the way, having recently made cryptocurrency legal and issuing regulatory guidelines for digital currencies and crypto-based companies or start-ups.</t>
+  </si>
+  <si>
+    <t>Other cryptocurrency hotspots like South Africa and Kenya aren't far behind. South Africa's top financial regulators, including the South African Reserve Bank, released a policy paper in April with recommendations for the regulation of cryptocurrency. Meanwhile, Kenya is set to experiment with a digital tax from January 2021, possibly opening the door to more crypto regulation.</t>
+  </si>
+  <si>
+    <t>Asia Broadband Inc. (AABB), through its wholly owned subsidiary Asia Metals Inc., announced today that the Company is in the final stages of negotiating the terms of a development agreement with a digital assets and crypto wallet creator to produce a gold-backed cryptocurrency coin.</t>
+  </si>
+  <si>
+    <t>The leading cryptocurrency exchange and trading platform PayBito, has expanded its crypto-asset portfolio with the latest listing of KICKS token, which is the native cashback coin on the SESSIA platform. The listing enables PayBito’s global user base to explore a new utility token, trade with it, not to mention use it on the SESSIA platform, which is a one-of-a-kind social media e-commerce marketplace.</t>
+  </si>
+  <si>
+    <t>While Bitcoin and Ethereum are still the most popular purchases through BRD, in countries with volatile currency fluctuations, like Venezuela, Argentina and India, interest in stablecoins, which are pegged to the U.S. dollar, is growing. The company is also seeing more adoption in Eastern European countries.</t>
+  </si>
+  <si>
+    <t>The company’s most recent funding announcement was a $15 million Series B announced in January 2019 for expansion in Asian markets. BRD also offers enterprise blockchain tools called Blockset and says it is currently used to store the equivalent of about $6 billion in cryptocurrencies.</t>
+  </si>
+  <si>
+    <t>Back in March this year, a three-judge bench of the Supreme Court revoked a Reserve Bank of India (RBI) ruling that banned any entity in India from dealing in, or to be involved with cryptocurrency transactions. While this initially sent a wave of optimism throughout industry players around the world, the reality on the ground is that withdrawing the ban merely moves cryptocurrency into a grey area -- with ambiguity that businesses cannot overlook. Now, the latest development is that the government is looking to outright ban cryptocurrency trading in India.</t>
+  </si>
+  <si>
+    <t>The Chinese city of Shenzhen will become a testing ground for a new sovereign cryptocurrency with residents issued millions in the digital coin for free.</t>
+  </si>
+  <si>
+    <t>Anndy emphasises that governments are open to the technology so far based on his experiences on the ground when dealing with them. He goes on saying that food security, ID management and controlling the flow of money are some of the “hot” topics. Countries like Singapore, Estonia, South Korea are already embarking their journey to solve problems using blockchain technology together with their existing infrastructures.</t>
+  </si>
+  <si>
+    <t>Square said it was making the purchase because it believes “bitcoin has the potential to be a more ubiquitous currency in the future,” calling cryptocurrency “an instrument of economic empowerment” that “provides a way for the world to participate in a global monetary system.” Square has accepted bitcoin as a form of payment since 2014.</t>
+  </si>
+  <si>
+    <t>Interestingly, while other companies may have shrunk their operations due to the pandemic or have had to pause the business, CoinSwitch Kuber, a crypto trading platform for India, was launched right in the midst the coronavirus outbreak. The founders say that they saw a spike in growth because traditional markets have been in turmoil due to COVID-19.</t>
+  </si>
+  <si>
+    <t>The recent survey by financial services company Jefferies indicates that US users will barely use Facebook's upcoming stablecoin, Libra, due to a lack of trust.</t>
+  </si>
+  <si>
+    <t>The path of national organizations - and amalgamated to traditional systems - towards economic modernization has not been easy. This is evidenced by the multiple regulatory obstacles to Facebook's Libra project, which surprised an inexperienced system with a lack of digital infrastructure.</t>
+  </si>
+  <si>
+    <t>Libra claimed to have received interest from 1,500 organizations to join the project, but not all met the eligibility requirements. The announcement came after the abandonment of the seventh company.</t>
+  </si>
+  <si>
+    <t>From being a rival of bitcoin to becoming an alternative to Paypal linked to the already established currencies. A change to suit the wishes of regulatory bodies, both European and American.</t>
+  </si>
+  <si>
+    <t>To appreciate basic insights on how a cryptocurrency can jeopardize economic stability, compare the Libra plan to Bitcoin’s growth as an important cryptocurrency in the past decade. The Libra may become too powerful and economically unpredictable if issued.</t>
+  </si>
+  <si>
+    <t>Although Facebook walked back plans for Libra in April 2020 in response to stakeholder pressure, opting instead for Libra to act more like a digital payment than a global monetary alternative, concerns remain about the project’s scope.</t>
+  </si>
+  <si>
+    <t>Being a global currency was Libra's big bet, which differentiated it from other currencies and also made it promising compared to other cryptocurrencies due to its own programming language or opaque reserve. This has been fading little by little over the months and as the concerns of governments and economic organizations have arisen.</t>
+  </si>
+  <si>
+    <t>The cryptocurrency bitcoin and Libra, backed by Facebook, could play a role in a world where central banks globally begin to issue their own digital currencies, a former senior central banker told CNBC's “Beyond the Valley” podcast.</t>
+  </si>
+  <si>
+    <t>Libra, the stablecoin project that Facebook is trying to boost with the collaboration of other large companies, has signs of being titanic and could pose risks to market stability, according to the European Central Bank.</t>
+  </si>
+  <si>
+    <t>Stable-rate cryptocurrencies such as pound, known as stablecoins, aim to establish themselves as an alternative to traditional money and extend access to the financial system. In order to become a global payment system, these types of currencies put aside the volatility of other virtual currencies such as bitcoin.</t>
+  </si>
+  <si>
+    <t>Although it relies on currencies, the ECB is afraid of the effects of a loss of end-user confidence in the stablecoin.</t>
+  </si>
+  <si>
+    <t>The fear of the Libra, the virtual currency that Facebook wants to introduce, and the impact of the Covid-19 have served as catalysts to boost cryptoeurs. The European Central Bank (ECB) has announced this Friday that it is accelerating work on the possible introduction of a digital euro, an electronic form of money that would complement bills and coins.</t>
+  </si>
+  <si>
+    <t>The report identifies a number of scenarios that would require the issuance of a digital euro. Among them, it highlights "the creation of private means of payment on a global scale that could generate regulatory problems and represent risks for financial stability and consumer protection". In other words, the ECB sees the digital euro as its weapon to counteract the influence of Libra.</t>
+  </si>
+  <si>
+    <t>The great powers of the EU (Germany, France, Italy, Spain and Holland) have signed this Friday a joint declaration in which they demand the strictest possible regulation of the crypto-currencies that will allow them to prohibit those that do not conform to European requirements.</t>
+  </si>
+  <si>
+    <t>The initiative is a declaration of war on the project of the American giant Facebook to create its own virtual currency called Libra, with the aim of achieving cheaper and faster transfers. A project that is currently stopped precisely because of the doubts it generates in regulators around the world.</t>
+  </si>
+  <si>
+    <t>"We put forward a very simple principle: the European Central Bank is the only one that should be allowed to issue currency. And this principle cannot be threatened or weakened by any kind of project, including Libra," insisted Le Maire.</t>
+  </si>
+  <si>
+    <t>Issuers of crypto assets backed by significant assets (so-called 'stable crypto currencies' such as Facebook's Pound) would be subject to more stringent requirements (e.g. in terms of capital, investor rights and supervision).</t>
+  </si>
+  <si>
+    <t>Libra published an updated whitepaper containing four major changes, one of which was the new token mechanism. Instead of a stablecoin backed by a basket of fiat currencies, the project now plans to run a system of a stablecoin backed by a multitude of fiat currencies. Therefore, at launch, there could be tokens such as LibraUSD, LibraGBP and LibraEUR among others.</t>
+  </si>
+  <si>
+    <t>Nearly two billion people worldwide use Facebook. The expansion of the shopping cart to include central bank currencies makes it possible for anyone to use Calibra as a more traditional payment system. Any user who has Messenger or WhatsApp installed on their mobile device could send funds worldwide at the touch of a button.</t>
+  </si>
+  <si>
+    <t>Tagomi, a New York-based cryptomoney brokerage firm, will join the Libra Association, the governing body of the Facebook-led stablecoin. Tagomi will become the 22nd member of the Libra Association. Members of the association are expected to contribute at least $10 million to the Libra Reserve, which holds the assets that support cryptomonics.</t>
+  </si>
+  <si>
+    <t>A silver lining to Libra's rocky start may be the response of central banks as they learn to accept digital currencies as the new reality. Since the project was announced, several countries have explored the possibility of minting a digital currency, including Japan, China and England.</t>
+  </si>
+  <si>
+    <t>Seven central banks have joined forces with a clear objective: to create a digital currency that raises the reference alternative and thus serves to try to overcome the efforts of the China project and also proposals such as that of Facebook with Libra.</t>
+  </si>
+  <si>
+    <t>Along with the entities mentioned are the Bank for International Settlements (BIS) and the Swiss National Bank, but not the People's Bank of China. This country already has a pilot project underway with its official digital cryptocurrency (DC / EP), and with it they want to achieve that the scope of the yuan is the same as that of the dollar.</t>
+  </si>
+  <si>
+    <t>The financial leaders of the seven largest economies in the world (G7) will announce this Tuesday that they oppose the launch of the "stablecoin" Libra, launched by Facebook until it is duly regulated, according to their draft declaration.</t>
+  </si>
+  <si>
+    <t>The G7 still holds that no global stablecoin project should begin operating until it adequately addresses relevant supervisory, regulatory and legal requirements through proper design and adhering to applicable standards.</t>
+  </si>
+  <si>
+    <t>The G-20 Financial Stability Board set 10 recommendations in April for a common, international approach to regulating stablecoins, after social media giant Facebook proposed the launch of Libra.</t>
+  </si>
+  <si>
+    <t>In the past three years, the United States Securities and Exchange Commission has rejected several applications for a Bitcoin (BTC) exchange-traded fund (ETF). This frustrates the hopes of many investors who believed that the price of Bitcoin would rise further if an EFT was approved.</t>
+  </si>
+  <si>
+    <t>The most recent Bloomberg newsletter on cryptocurrencies predicts that a Bitcoin ETF could see the light of day if the Democratic Party's presidential candidate, Joe Biden, is elected as the next president of the United States. The author believes that a change in command can bring regulatory clarity to drive more investment to the world of digital assets.</t>
+  </si>
+  <si>
+    <t>In China there are different cryptocurrencies that work with a blockchain system operated by the government, one of them is the iShenzhen. To encourage its use, 10 million yuan is being raffled off and any interested citizen will be able to participate.</t>
+  </si>
+  <si>
+    <t>The iShenzhen is a digital currency, not traditional, because it is a system controlled by the government, to avoid fluctuation, and supported by the People's Bank of China, an official financial institution. According to the American portal, other cities have also presented and tested their cryptocurrencies such as Xiongan, Suzhou and Chengdu.</t>
+  </si>
+  <si>
+    <t>In relation to the general requirements that the project poses for companies linked to cryptocurrencies, Idoya Arteagabeitia explains that it is a drastic change, because it goes from having no regulation at all to having to comply with many regulations.</t>
+  </si>
+  <si>
+    <t>Con estos comentarios Gómez se remite a una declaración suscrita por España, Francia, Italia, Alemania y Países Bajos, en la cual apoyan el plan de regulación de la Comisión Europea y solicitan reglas fuertes para las stablecoins.</t>
+  </si>
+  <si>
+    <t>On this, the Spanish lawyer Javier Maestre wrote an article pointing out that so many bureaucratic, financial and technical requirements will discourage innovation and impose strong entry barriers to markets related to crypto assets.</t>
+  </si>
+  <si>
+    <t>"I think the problem that really worries regulators is Libra (Facebook's cryptocurrency project)," concludes Gómez Toribio. He affirms that behind all this is the fear of the European authorities that a company with billions of users could place a financial product on the European market, in this case a global stablecoin.</t>
+  </si>
+  <si>
+    <t>A Chilean entity dedicated to the education and promotion of the use of cryptocurrencies has issued an alert in the country against 20 companies that promote fraud through the use of cryptocurrencies.</t>
+  </si>
+  <si>
+    <t>During his time as director of the UK Financial Conduct Authority, Bailey told Members of Parliament at a Treasury Select Committee hearing that investors should "be prepared to lose all [their] money", as the Crypto asset has no intrinsic value.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,8 +1277,106 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF161F36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF161F36"/>
+      <name val="Acumin-pro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1E2633"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1E2633"/>
+      <name val="Source Serif Pro Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E2633"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,8 +1413,32 @@
         <bgColor rgb="FFFEFEFE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1045,11 +1461,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1160,6 +1602,90 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1442,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247:C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4148,9 +4674,1131 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="29.25">
+    <row r="246" spans="1:3" ht="30" thickBot="1">
       <c r="A246" s="37" t="s">
         <v>251</v>
+      </c>
+      <c r="B246" s="38">
+        <v>0</v>
+      </c>
+      <c r="C246" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A247" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" s="40">
+        <v>1</v>
+      </c>
+      <c r="C247" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A248" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248" s="40">
+        <v>1</v>
+      </c>
+      <c r="C248" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A249" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249" s="40">
+        <v>0</v>
+      </c>
+      <c r="C249" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A250" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250" s="40">
+        <v>1</v>
+      </c>
+      <c r="C250" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A251" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251" s="40">
+        <v>1</v>
+      </c>
+      <c r="C251" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="39" thickBot="1">
+      <c r="A252" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252" s="40">
+        <v>1</v>
+      </c>
+      <c r="C252" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A253" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253" s="40">
+        <v>1</v>
+      </c>
+      <c r="C253" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A254" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" s="40">
+        <v>1</v>
+      </c>
+      <c r="C254" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="39" thickBot="1">
+      <c r="A255" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255" s="40">
+        <v>1</v>
+      </c>
+      <c r="C255" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="39" thickBot="1">
+      <c r="A256" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256" s="40">
+        <v>1</v>
+      </c>
+      <c r="C256" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="39" thickBot="1">
+      <c r="A257" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B257" s="40">
+        <v>1</v>
+      </c>
+      <c r="C257" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A258" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B258" s="40">
+        <v>0</v>
+      </c>
+      <c r="C258" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="39" thickBot="1">
+      <c r="A259" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B259" s="40">
+        <v>1</v>
+      </c>
+      <c r="C259" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A260" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260" s="40">
+        <v>1</v>
+      </c>
+      <c r="C260" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="51.75" thickBot="1">
+      <c r="A261" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261" s="40">
+        <v>0</v>
+      </c>
+      <c r="C261" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A262" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262" s="40">
+        <v>1</v>
+      </c>
+      <c r="C262" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="27" thickBot="1">
+      <c r="A263" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263" s="40">
+        <v>1</v>
+      </c>
+      <c r="C263" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A264" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264" s="40">
+        <v>0</v>
+      </c>
+      <c r="C264" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="27" thickBot="1">
+      <c r="A265" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265" s="40">
+        <v>0</v>
+      </c>
+      <c r="C265" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="27" thickBot="1">
+      <c r="A266" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266" s="40">
+        <v>0</v>
+      </c>
+      <c r="C266" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="27" thickBot="1">
+      <c r="A267" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267" s="40">
+        <v>0</v>
+      </c>
+      <c r="C267" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A268" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268" s="40">
+        <v>1</v>
+      </c>
+      <c r="C268" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A269" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" s="40">
+        <v>0</v>
+      </c>
+      <c r="C269" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="27" thickBot="1">
+      <c r="A270" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270" s="40">
+        <v>0</v>
+      </c>
+      <c r="C270" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A271" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271" s="40">
+        <v>0</v>
+      </c>
+      <c r="C271" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="27" thickBot="1">
+      <c r="A272" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272" s="40">
+        <v>1</v>
+      </c>
+      <c r="C272" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="27" thickBot="1">
+      <c r="A273" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273" s="40">
+        <v>1</v>
+      </c>
+      <c r="C273" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A274" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274" s="40">
+        <v>0</v>
+      </c>
+      <c r="C274" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="27" thickBot="1">
+      <c r="A275" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275" s="40">
+        <v>1</v>
+      </c>
+      <c r="C275" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A276" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276" s="40">
+        <v>1</v>
+      </c>
+      <c r="C276" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="30" thickBot="1">
+      <c r="A277" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277" s="40">
+        <v>0</v>
+      </c>
+      <c r="C277" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="44.25" thickBot="1">
+      <c r="A278" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278" s="40">
+        <v>1</v>
+      </c>
+      <c r="C278" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="30" thickBot="1">
+      <c r="A279" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279" s="40">
+        <v>1</v>
+      </c>
+      <c r="C279" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="44.25" thickBot="1">
+      <c r="A280" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" s="40">
+        <v>1</v>
+      </c>
+      <c r="C280" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="30" thickBot="1">
+      <c r="A281" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281" s="40">
+        <v>0</v>
+      </c>
+      <c r="C281" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="30" thickBot="1">
+      <c r="A282" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282" s="40">
+        <v>1</v>
+      </c>
+      <c r="C282" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="58.5" thickBot="1">
+      <c r="A283" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283" s="40">
+        <v>1</v>
+      </c>
+      <c r="C283" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="30" thickBot="1">
+      <c r="A284" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" s="40">
+        <v>0</v>
+      </c>
+      <c r="C284" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="44.25" thickBot="1">
+      <c r="A285" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285" s="40">
+        <v>1</v>
+      </c>
+      <c r="C285" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="30" thickBot="1">
+      <c r="A286" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" s="40">
+        <v>1</v>
+      </c>
+      <c r="C286" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="30" thickBot="1">
+      <c r="A287" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B287" s="40">
+        <v>1</v>
+      </c>
+      <c r="C287" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="30" thickBot="1">
+      <c r="A288" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288" s="40">
+        <v>1</v>
+      </c>
+      <c r="C288" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="30" thickBot="1">
+      <c r="A289" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289" s="40">
+        <v>0</v>
+      </c>
+      <c r="C289" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="44.25" thickBot="1">
+      <c r="A290" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290" s="40">
+        <v>1</v>
+      </c>
+      <c r="C290" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="44.25" thickBot="1">
+      <c r="A291" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291" s="40">
+        <v>0</v>
+      </c>
+      <c r="C291" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A292" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292" s="40">
+        <v>0</v>
+      </c>
+      <c r="C292" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="95.25" thickBot="1">
+      <c r="A293" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293" s="40">
+        <v>0</v>
+      </c>
+      <c r="C293" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A294" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B294" s="40">
+        <v>1</v>
+      </c>
+      <c r="C294" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A295" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" s="40">
+        <v>1</v>
+      </c>
+      <c r="C295" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="27" thickBot="1">
+      <c r="A296" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B296" s="40">
+        <v>1</v>
+      </c>
+      <c r="C296" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="27" thickBot="1">
+      <c r="A297" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B297" s="40">
+        <v>1</v>
+      </c>
+      <c r="C297" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A298" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B298" s="40">
+        <v>0</v>
+      </c>
+      <c r="C298" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="27" thickBot="1">
+      <c r="A299" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299" s="40">
+        <v>0</v>
+      </c>
+      <c r="C299" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="27" thickBot="1">
+      <c r="A300" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="B300" s="40">
+        <v>1</v>
+      </c>
+      <c r="C300" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A301" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301" s="40">
+        <v>1</v>
+      </c>
+      <c r="C301" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A302" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B302" s="40">
+        <v>1</v>
+      </c>
+      <c r="C302" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A303" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="B303" s="40">
+        <v>1</v>
+      </c>
+      <c r="C303" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A304" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B304" s="40">
+        <v>1</v>
+      </c>
+      <c r="C304" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A305" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305" s="40">
+        <v>1</v>
+      </c>
+      <c r="C305" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A306" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B306" s="40">
+        <v>1</v>
+      </c>
+      <c r="C306" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="78" thickBot="1">
+      <c r="A307" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B307" s="40">
+        <v>0</v>
+      </c>
+      <c r="C307" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="27" thickBot="1">
+      <c r="A308" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B308" s="40">
+        <v>1</v>
+      </c>
+      <c r="C308" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="65.25" thickBot="1">
+      <c r="A309" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" s="40">
+        <v>1</v>
+      </c>
+      <c r="C309" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A310" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310" s="40">
+        <v>1</v>
+      </c>
+      <c r="C310" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A311" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B311" s="40">
+        <v>1</v>
+      </c>
+      <c r="C311" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="25.5" thickBot="1">
+      <c r="A312" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B312" s="61">
+        <v>0</v>
+      </c>
+      <c r="C312" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A313" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="B313" s="61">
+        <v>0</v>
+      </c>
+      <c r="C313" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="25.5" thickBot="1">
+      <c r="A314" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="B314" s="61">
+        <v>0</v>
+      </c>
+      <c r="C314" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="25.5" thickBot="1">
+      <c r="A315" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B315" s="61">
+        <v>1</v>
+      </c>
+      <c r="C315" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A316" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B316" s="61">
+        <v>0</v>
+      </c>
+      <c r="C316" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A317" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B317" s="61">
+        <v>0</v>
+      </c>
+      <c r="C317" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="49.5" thickBot="1">
+      <c r="A318" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B318" s="61">
+        <v>0</v>
+      </c>
+      <c r="C318" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A319" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="B319" s="61">
+        <v>1</v>
+      </c>
+      <c r="C319" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="25.5" thickBot="1">
+      <c r="A320" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="B320" s="61">
+        <v>0</v>
+      </c>
+      <c r="C320" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A321" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="B321" s="61">
+        <v>1</v>
+      </c>
+      <c r="C321" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A322" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="B322" s="61">
+        <v>0</v>
+      </c>
+      <c r="C322" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A323" s="41"/>
+      <c r="B323" s="41"/>
+      <c r="C323" s="41"/>
+    </row>
+    <row r="324" spans="1:3" ht="49.5" thickBot="1">
+      <c r="A324" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" s="61">
+        <v>0</v>
+      </c>
+      <c r="C324" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="49.5" thickBot="1">
+      <c r="A325" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B325" s="61">
+        <v>0</v>
+      </c>
+      <c r="C325" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A326" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B326" s="61">
+        <v>0</v>
+      </c>
+      <c r="C326" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A327" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="B327" s="61">
+        <v>0</v>
+      </c>
+      <c r="C327" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A328" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="B328" s="61">
+        <v>0</v>
+      </c>
+      <c r="C328" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="25.5" thickBot="1">
+      <c r="A329" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="B329" s="61">
+        <v>0</v>
+      </c>
+      <c r="C329" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="49.5" thickBot="1">
+      <c r="A330" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="B330" s="61">
+        <v>1</v>
+      </c>
+      <c r="C330" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A331" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="B331" s="61">
+        <v>1</v>
+      </c>
+      <c r="C331" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="49.5" thickBot="1">
+      <c r="A332" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="B332" s="61">
+        <v>1</v>
+      </c>
+      <c r="C332" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A333" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B333" s="61">
+        <v>1</v>
+      </c>
+      <c r="C333" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="37.5" thickBot="1">
+      <c r="A334" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="B334" s="61">
+        <v>0</v>
+      </c>
+      <c r="C334" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="49.5" thickBot="1">
+      <c r="A335" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B335" s="61">
+        <v>0</v>
+      </c>
+      <c r="C335" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A336" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="B336" s="61">
+        <v>0</v>
+      </c>
+      <c r="C336" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A337" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B337" s="61">
+        <v>0</v>
+      </c>
+      <c r="C337" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="27" thickBot="1">
+      <c r="A338" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" s="61">
+        <v>0</v>
+      </c>
+      <c r="C338" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A339" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" s="61">
+        <v>0</v>
+      </c>
+      <c r="C339" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A340" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" s="61">
+        <v>1</v>
+      </c>
+      <c r="C340" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A341" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" s="61">
+        <v>1</v>
+      </c>
+      <c r="C341" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="52.5" thickBot="1">
+      <c r="A342" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" s="61">
+        <v>1</v>
+      </c>
+      <c r="C342" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A343" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="B343" s="61">
+        <v>0</v>
+      </c>
+      <c r="C343" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A344" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B344" s="61">
+        <v>0</v>
+      </c>
+      <c r="C344" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A345" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" s="61">
+        <v>0</v>
+      </c>
+      <c r="C345" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A346" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="B346" s="61">
+        <v>0</v>
+      </c>
+      <c r="C346" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="27" thickBot="1">
+      <c r="A347" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" s="61">
+        <v>0</v>
+      </c>
+      <c r="C347" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="39.75" thickBot="1">
+      <c r="A348" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B348" s="61">
+        <v>0</v>
+      </c>
+      <c r="C348" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4175,5 +5823,6 @@
     <hyperlink ref="A243" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>